--- a/TrimestreEconómico/Datos/Mapeo Variables.xlsx
+++ b/TrimestreEconómico/Datos/Mapeo Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0066b8dfbbc5c50e/Documents/GitHub/ServicioBecario/TrimestreEconómico/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1258" documentId="8_{5CA4D3B8-EAA2-4A19-859C-E201588E549F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA187AB5-2CF6-4B8B-B2C8-D6A077684DDC}"/>
+  <xr:revisionPtr revIDLastSave="1260" documentId="8_{5CA4D3B8-EAA2-4A19-859C-E201588E549F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06BD107A-2358-4C1F-9681-7EAB114033C0}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{F7051B56-6B92-4498-BC75-47D72F005D9E}"/>
+    <workbookView xWindow="-28920" yWindow="9345" windowWidth="29040" windowHeight="15720" xr2:uid="{F7051B56-6B92-4498-BC75-47D72F005D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2421,7 +2421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2429,17 +2429,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2779,14 +2798,14 @@
   <dimension ref="A1:G417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I247" sqref="I247"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.69140625" customWidth="1"/>
     <col min="3" max="4" width="5.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.84375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.61328125" bestFit="1" customWidth="1"/>
@@ -2797,7 +2816,7 @@
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
@@ -2820,7 +2839,7 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2">
@@ -2843,7 +2862,7 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
@@ -2866,7 +2885,7 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4">
@@ -2889,7 +2908,7 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5">
@@ -2912,7 +2931,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6">
@@ -2935,7 +2954,7 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7">
@@ -2958,7 +2977,7 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C8">
@@ -2981,7 +3000,7 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C9">
@@ -3004,7 +3023,7 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C10">
@@ -3027,7 +3046,7 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11">
@@ -3050,7 +3069,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C12">
@@ -3073,7 +3092,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C13">
@@ -3096,7 +3115,7 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C14">
@@ -3119,7 +3138,7 @@
       <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C15">
@@ -3142,7 +3161,7 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C16">
@@ -3165,7 +3184,7 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C17">
@@ -3188,7 +3207,7 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C18">
@@ -3208,10 +3227,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C19">
@@ -3231,10 +3250,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C20">
@@ -3254,10 +3273,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C21">
@@ -3280,7 +3299,7 @@
       <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>579</v>
       </c>
       <c r="C22">
@@ -3303,7 +3322,7 @@
       <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C23">
@@ -3326,7 +3345,7 @@
       <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C24">
@@ -3349,7 +3368,7 @@
       <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C25">
@@ -3372,7 +3391,7 @@
       <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C26">
@@ -3395,7 +3414,7 @@
       <c r="A27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C27">
@@ -3418,7 +3437,7 @@
       <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C28">
@@ -3441,7 +3460,7 @@
       <c r="A29" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C29">
@@ -3464,7 +3483,7 @@
       <c r="A30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C30">
@@ -3487,7 +3506,7 @@
       <c r="A31" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C31">
@@ -3510,7 +3529,7 @@
       <c r="A32" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C32">
@@ -3533,7 +3552,7 @@
       <c r="A33" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C33">
@@ -3556,7 +3575,7 @@
       <c r="A34" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C34">
@@ -3579,7 +3598,7 @@
       <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C35">
@@ -3602,7 +3621,7 @@
       <c r="A36" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C36">
@@ -3625,7 +3644,7 @@
       <c r="A37" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C37">
@@ -3645,10 +3664,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C38">
@@ -3668,10 +3687,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C39">
@@ -3694,7 +3713,7 @@
       <c r="A40" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C40">
@@ -3717,7 +3736,7 @@
       <c r="A41" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C41">
@@ -3740,7 +3759,7 @@
       <c r="A42" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C42">
@@ -3763,7 +3782,7 @@
       <c r="A43" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C43">
@@ -3786,7 +3805,7 @@
       <c r="A44" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C44">
@@ -3809,7 +3828,7 @@
       <c r="A45" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C45">
@@ -3832,7 +3851,7 @@
       <c r="A46" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C46">
@@ -3855,7 +3874,7 @@
       <c r="A47" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C47">
@@ -3878,7 +3897,7 @@
       <c r="A48" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C48">
@@ -3901,7 +3920,7 @@
       <c r="A49" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C49">
@@ -3924,7 +3943,7 @@
       <c r="A50" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C50">
@@ -3947,7 +3966,7 @@
       <c r="A51" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C51">
@@ -3970,7 +3989,7 @@
       <c r="A52" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C52">
@@ -3993,7 +4012,7 @@
       <c r="A53" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C53">
@@ -4016,7 +4035,7 @@
       <c r="A54" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C54">
@@ -4039,7 +4058,7 @@
       <c r="A55" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C55">
@@ -4062,7 +4081,7 @@
       <c r="A56" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C56">
@@ -4085,7 +4104,7 @@
       <c r="A57" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C57">
@@ -4108,7 +4127,7 @@
       <c r="A58" t="s">
         <v>119</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C58">
@@ -4131,7 +4150,7 @@
       <c r="A59" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C59">
@@ -4154,7 +4173,7 @@
       <c r="A60" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C60">
@@ -4177,7 +4196,7 @@
       <c r="A61" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C61">
@@ -4200,7 +4219,7 @@
       <c r="A62" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C62">
@@ -4223,7 +4242,7 @@
       <c r="A63" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C63">
@@ -4246,7 +4265,7 @@
       <c r="A64" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C64">
@@ -4269,7 +4288,7 @@
       <c r="A65" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C65">
@@ -4292,7 +4311,7 @@
       <c r="A66" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C66">
@@ -4315,7 +4334,7 @@
       <c r="A67" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C67">
@@ -4338,7 +4357,7 @@
       <c r="A68" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C68">
@@ -4361,7 +4380,7 @@
       <c r="A69" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C69">
@@ -4384,7 +4403,7 @@
       <c r="A70" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C70">
@@ -4407,7 +4426,7 @@
       <c r="A71" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C71">
@@ -4430,7 +4449,7 @@
       <c r="A72" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C72">
@@ -4453,7 +4472,7 @@
       <c r="A73" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C73">
@@ -4476,7 +4495,7 @@
       <c r="A74" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C74">
@@ -4499,7 +4518,7 @@
       <c r="A75" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C75">
@@ -4522,7 +4541,7 @@
       <c r="A76" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C76">
@@ -4545,7 +4564,7 @@
       <c r="A77" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C77">
@@ -4568,7 +4587,7 @@
       <c r="A78" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C78">
@@ -4591,7 +4610,7 @@
       <c r="A79" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C79">
@@ -4614,7 +4633,7 @@
       <c r="A80" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C80">
@@ -4637,7 +4656,7 @@
       <c r="A81" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C81">
@@ -4660,7 +4679,7 @@
       <c r="A82" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C82">
@@ -4683,7 +4702,7 @@
       <c r="A83" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C83">
@@ -4706,7 +4725,7 @@
       <c r="A84" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C84">
@@ -4729,7 +4748,7 @@
       <c r="A85" t="s">
         <v>172</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C85">
@@ -4752,7 +4771,7 @@
       <c r="A86" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C86">
@@ -4775,7 +4794,7 @@
       <c r="A87" t="s">
         <v>176</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C87">
@@ -4798,7 +4817,7 @@
       <c r="A88" t="s">
         <v>178</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C88">
@@ -4821,7 +4840,7 @@
       <c r="A89" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C89">
@@ -4844,7 +4863,7 @@
       <c r="A90" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C90">
@@ -4867,7 +4886,7 @@
       <c r="A91" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C91">
@@ -4890,7 +4909,7 @@
       <c r="A92" t="s">
         <v>186</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>187</v>
       </c>
       <c r="C92">
@@ -4913,7 +4932,7 @@
       <c r="A93" t="s">
         <v>188</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C93">
@@ -4936,7 +4955,7 @@
       <c r="A94" t="s">
         <v>190</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C94">
@@ -4959,7 +4978,7 @@
       <c r="A95" t="s">
         <v>192</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C95">
@@ -4982,7 +5001,7 @@
       <c r="A96" t="s">
         <v>194</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C96">
@@ -5005,7 +5024,7 @@
       <c r="A97" t="s">
         <v>196</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C97">
@@ -5028,7 +5047,7 @@
       <c r="A98" t="s">
         <v>198</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C98">
@@ -5051,7 +5070,7 @@
       <c r="A99" t="s">
         <v>200</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C99">
@@ -5074,7 +5093,7 @@
       <c r="A100" t="s">
         <v>202</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C100">
@@ -5097,7 +5116,7 @@
       <c r="A101" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>217</v>
       </c>
       <c r="C101">
@@ -5120,7 +5139,7 @@
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C102">
@@ -5143,7 +5162,7 @@
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C103">
@@ -5166,7 +5185,7 @@
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C104">
@@ -5189,7 +5208,7 @@
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C105">
@@ -5212,7 +5231,7 @@
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C106">
@@ -5235,7 +5254,7 @@
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C107">
@@ -5258,7 +5277,7 @@
       <c r="A108" t="s">
         <v>218</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C108">
@@ -5281,7 +5300,7 @@
       <c r="A109" t="s">
         <v>221</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C109">
@@ -5304,7 +5323,7 @@
       <c r="A110" t="s">
         <v>222</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C110">
@@ -5327,7 +5346,7 @@
       <c r="A111" t="s">
         <v>224</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C111">
@@ -5350,7 +5369,7 @@
       <c r="A112" t="s">
         <v>226</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C112">
@@ -5373,7 +5392,7 @@
       <c r="A113" t="s">
         <v>228</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C113">
@@ -5396,7 +5415,7 @@
       <c r="A114" t="s">
         <v>230</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>231</v>
       </c>
       <c r="C114">
@@ -5419,7 +5438,7 @@
       <c r="A115" t="s">
         <v>232</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C115">
@@ -5442,7 +5461,7 @@
       <c r="A116" t="s">
         <v>234</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C116">
@@ -5465,7 +5484,7 @@
       <c r="A117" t="s">
         <v>236</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C117">
@@ -5488,7 +5507,7 @@
       <c r="A118" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C118">
@@ -5511,7 +5530,7 @@
       <c r="A119" t="s">
         <v>240</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>241</v>
       </c>
       <c r="C119">
@@ -5534,7 +5553,7 @@
       <c r="A120" t="s">
         <v>242</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C120">
@@ -5557,7 +5576,7 @@
       <c r="A121" t="s">
         <v>244</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C121">
@@ -5580,7 +5599,7 @@
       <c r="A122" t="s">
         <v>246</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C122">
@@ -5603,7 +5622,7 @@
       <c r="A123" t="s">
         <v>248</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C123">
@@ -5626,7 +5645,7 @@
       <c r="A124" t="s">
         <v>250</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C124">
@@ -5649,7 +5668,7 @@
       <c r="A125" t="s">
         <v>252</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C125">
@@ -5672,7 +5691,7 @@
       <c r="A126" t="s">
         <v>254</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C126">
@@ -5695,7 +5714,7 @@
       <c r="A127" t="s">
         <v>256</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="4" t="s">
         <v>257</v>
       </c>
       <c r="C127">
@@ -5718,7 +5737,7 @@
       <c r="A128" t="s">
         <v>258</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C128">
@@ -5741,7 +5760,7 @@
       <c r="A129" t="s">
         <v>260</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C129">
@@ -5764,7 +5783,7 @@
       <c r="A130" t="s">
         <v>262</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C130">
@@ -5787,7 +5806,7 @@
       <c r="A131" t="s">
         <v>42</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C131">
@@ -5810,7 +5829,7 @@
       <c r="A132" t="s">
         <v>268</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C132">
@@ -5833,7 +5852,7 @@
       <c r="A133" t="s">
         <v>269</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C133">
@@ -5856,7 +5875,7 @@
       <c r="A134" t="s">
         <v>270</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C134">
@@ -5879,7 +5898,7 @@
       <c r="A135" t="s">
         <v>271</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C135">
@@ -5902,7 +5921,7 @@
       <c r="A136" t="s">
         <v>273</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C136">
@@ -5925,7 +5944,7 @@
       <c r="A137" t="s">
         <v>275</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C137">
@@ -5948,7 +5967,7 @@
       <c r="A138" t="s">
         <v>277</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C138">
@@ -5971,7 +5990,7 @@
       <c r="A139" t="s">
         <v>279</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C139">
@@ -5994,7 +6013,7 @@
       <c r="A140" t="s">
         <v>281</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C140">
@@ -6017,7 +6036,7 @@
       <c r="A141" t="s">
         <v>283</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C141">
@@ -6040,7 +6059,7 @@
       <c r="A142" t="s">
         <v>285</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C142">
@@ -6063,7 +6082,7 @@
       <c r="A143" t="s">
         <v>287</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C143">
@@ -6086,7 +6105,7 @@
       <c r="A144" t="s">
         <v>289</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C144">
@@ -6109,7 +6128,7 @@
       <c r="A145" t="s">
         <v>291</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="4" t="s">
         <v>292</v>
       </c>
       <c r="C145">
@@ -6132,7 +6151,7 @@
       <c r="A146" t="s">
         <v>293</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C146">
@@ -6155,7 +6174,7 @@
       <c r="A147" t="s">
         <v>295</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C147">
@@ -6178,7 +6197,7 @@
       <c r="A148" t="s">
         <v>298</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C148">
@@ -6201,7 +6220,7 @@
       <c r="A149" t="s">
         <v>299</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C149">
@@ -6224,7 +6243,7 @@
       <c r="A150" t="s">
         <v>300</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C150">
@@ -6247,7 +6266,7 @@
       <c r="A151" t="s">
         <v>301</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C151">
@@ -6270,7 +6289,7 @@
       <c r="A152" t="s">
         <v>305</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C152">
@@ -6293,7 +6312,7 @@
       <c r="A153" t="s">
         <v>307</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C153">
@@ -6316,7 +6335,7 @@
       <c r="A154" t="s">
         <v>309</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C154">
@@ -6339,7 +6358,7 @@
       <c r="A155" t="s">
         <v>310</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="4" t="s">
         <v>321</v>
       </c>
       <c r="C155">
@@ -6362,7 +6381,7 @@
       <c r="A156" t="s">
         <v>311</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C156">
@@ -6385,7 +6404,7 @@
       <c r="A157" t="s">
         <v>312</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="4" t="s">
         <v>323</v>
       </c>
       <c r="C157">
@@ -6408,7 +6427,7 @@
       <c r="A158" t="s">
         <v>313</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C158">
@@ -6431,7 +6450,7 @@
       <c r="A159" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="4" t="s">
         <v>325</v>
       </c>
       <c r="C159">
@@ -6454,7 +6473,7 @@
       <c r="A160" t="s">
         <v>315</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="4" t="s">
         <v>326</v>
       </c>
       <c r="C160">
@@ -6477,7 +6496,7 @@
       <c r="A161" t="s">
         <v>316</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="4" t="s">
         <v>327</v>
       </c>
       <c r="C161">
@@ -6500,7 +6519,7 @@
       <c r="A162" t="s">
         <v>317</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="4" t="s">
         <v>328</v>
       </c>
       <c r="C162">
@@ -6523,7 +6542,7 @@
       <c r="A163" t="s">
         <v>318</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C163">
@@ -6546,7 +6565,7 @@
       <c r="A164" t="s">
         <v>319</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C164">
@@ -6569,7 +6588,7 @@
       <c r="A165" t="s">
         <v>332</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="4" t="s">
         <v>331</v>
       </c>
       <c r="C165">
@@ -6592,7 +6611,7 @@
       <c r="A166" t="s">
         <v>333</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C166">
@@ -6615,7 +6634,7 @@
       <c r="A167" t="s">
         <v>335</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C167">
@@ -6638,7 +6657,7 @@
       <c r="A168" t="s">
         <v>337</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C168">
@@ -6661,7 +6680,7 @@
       <c r="A169" t="s">
         <v>340</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C169">
@@ -6684,7 +6703,7 @@
       <c r="A170" t="s">
         <v>344</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C170">
@@ -6707,7 +6726,7 @@
       <c r="A171" t="s">
         <v>345</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C171">
@@ -6730,7 +6749,7 @@
       <c r="A172" t="s">
         <v>346</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C172">
@@ -6753,7 +6772,7 @@
       <c r="A173" t="s">
         <v>347</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C173">
@@ -6776,7 +6795,7 @@
       <c r="A174" t="s">
         <v>46</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C174">
@@ -6799,7 +6818,7 @@
       <c r="A175" t="s">
         <v>349</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="4" t="s">
         <v>350</v>
       </c>
       <c r="C175">
@@ -6822,7 +6841,7 @@
       <c r="A176" t="s">
         <v>351</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C176">
@@ -6845,7 +6864,7 @@
       <c r="A177" t="s">
         <v>353</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C177">
@@ -6868,7 +6887,7 @@
       <c r="A178" t="s">
         <v>358</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="4" t="s">
         <v>355</v>
       </c>
       <c r="C178">
@@ -6891,7 +6910,7 @@
       <c r="A179" t="s">
         <v>359</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C179">
@@ -6914,7 +6933,7 @@
       <c r="A180" t="s">
         <v>360</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="4" t="s">
         <v>357</v>
       </c>
       <c r="C180">
@@ -6937,7 +6956,7 @@
       <c r="A181" t="s">
         <v>361</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C181">
@@ -6960,7 +6979,7 @@
       <c r="A182" t="s">
         <v>363</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="4" t="s">
         <v>362</v>
       </c>
       <c r="C182">
@@ -6983,7 +7002,7 @@
       <c r="A183" t="s">
         <v>365</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C183">
@@ -7006,7 +7025,7 @@
       <c r="A184" t="s">
         <v>366</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C184">
@@ -7029,7 +7048,7 @@
       <c r="A185" t="s">
         <v>367</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C185">
@@ -7052,7 +7071,7 @@
       <c r="A186" t="s">
         <v>370</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C186">
@@ -7075,7 +7094,7 @@
       <c r="A187" t="s">
         <v>373</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C187">
@@ -7098,7 +7117,7 @@
       <c r="A188" t="s">
         <v>374</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C188">
@@ -7121,7 +7140,7 @@
       <c r="A189" t="s">
         <v>375</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C189">
@@ -7144,7 +7163,7 @@
       <c r="A190" t="s">
         <v>377</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C190">
@@ -7167,7 +7186,7 @@
       <c r="A191" t="s">
         <v>378</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C191">
@@ -7190,7 +7209,7 @@
       <c r="A192" t="s">
         <v>380</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="4" t="s">
         <v>382</v>
       </c>
       <c r="C192">
@@ -7213,7 +7232,7 @@
       <c r="A193" t="s">
         <v>381</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C193">
@@ -7236,7 +7255,7 @@
       <c r="A194" t="s">
         <v>383</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C194">
@@ -7259,7 +7278,7 @@
       <c r="A195" t="s">
         <v>384</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C195">
@@ -7282,7 +7301,7 @@
       <c r="A196" t="s">
         <v>386</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C196">
@@ -7305,7 +7324,7 @@
       <c r="A197" t="s">
         <v>388</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C197">
@@ -7328,7 +7347,7 @@
       <c r="A198" t="s">
         <v>390</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="4" t="s">
         <v>391</v>
       </c>
       <c r="C198">
@@ -7351,7 +7370,7 @@
       <c r="A199" t="s">
         <v>392</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C199">
@@ -7374,7 +7393,7 @@
       <c r="A200" t="s">
         <v>394</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="4" t="s">
         <v>395</v>
       </c>
       <c r="C200">
@@ -7397,7 +7416,7 @@
       <c r="A201" t="s">
         <v>396</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C201">
@@ -7420,7 +7439,7 @@
       <c r="A202" t="s">
         <v>398</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C202">
@@ -7443,7 +7462,7 @@
       <c r="A203" t="s">
         <v>400</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C203">
@@ -7466,7 +7485,7 @@
       <c r="A204" t="s">
         <v>402</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="4" t="s">
         <v>403</v>
       </c>
       <c r="C204">
@@ -7489,7 +7508,7 @@
       <c r="A205" t="s">
         <v>404</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="4" t="s">
         <v>405</v>
       </c>
       <c r="C205">
@@ -7512,7 +7531,7 @@
       <c r="A206" t="s">
         <v>406</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C206">
@@ -7535,7 +7554,7 @@
       <c r="A207" t="s">
         <v>408</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="4" t="s">
         <v>407</v>
       </c>
       <c r="C207">
@@ -7558,7 +7577,7 @@
       <c r="A208" t="s">
         <v>416</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="4" t="s">
         <v>409</v>
       </c>
       <c r="C208">
@@ -7581,7 +7600,7 @@
       <c r="A209" t="s">
         <v>417</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="4" t="s">
         <v>410</v>
       </c>
       <c r="C209">
@@ -7604,7 +7623,7 @@
       <c r="A210" t="s">
         <v>418</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="4" t="s">
         <v>411</v>
       </c>
       <c r="C210">
@@ -7627,7 +7646,7 @@
       <c r="A211" t="s">
         <v>419</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="4" t="s">
         <v>412</v>
       </c>
       <c r="C211">
@@ -7650,7 +7669,7 @@
       <c r="A212" t="s">
         <v>420</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="4" t="s">
         <v>413</v>
       </c>
       <c r="C212">
@@ -7673,7 +7692,7 @@
       <c r="A213" t="s">
         <v>421</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="4" t="s">
         <v>414</v>
       </c>
       <c r="C213">
@@ -7696,7 +7715,7 @@
       <c r="A214" t="s">
         <v>422</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C214">
@@ -7719,7 +7738,7 @@
       <c r="A215" t="s">
         <v>423</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C215">
@@ -7742,7 +7761,7 @@
       <c r="A216" t="s">
         <v>424</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="4" t="s">
         <v>425</v>
       </c>
       <c r="C216">
@@ -7765,7 +7784,7 @@
       <c r="A217" t="s">
         <v>426</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="4" t="s">
         <v>427</v>
       </c>
       <c r="C217">
@@ -7788,7 +7807,7 @@
       <c r="A218" t="s">
         <v>428</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="4" t="s">
         <v>429</v>
       </c>
       <c r="C218">
@@ -7811,7 +7830,7 @@
       <c r="A219" t="s">
         <v>430</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="4" t="s">
         <v>431</v>
       </c>
       <c r="C219">
@@ -7834,7 +7853,7 @@
       <c r="A220" t="s">
         <v>433</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="4" t="s">
         <v>432</v>
       </c>
       <c r="C220">
@@ -7857,7 +7876,7 @@
       <c r="A221" t="s">
         <v>434</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="4" t="s">
         <v>435</v>
       </c>
       <c r="C221">
@@ -7880,7 +7899,7 @@
       <c r="A222" t="s">
         <v>436</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C222">
@@ -7903,7 +7922,7 @@
       <c r="A223" t="s">
         <v>437</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C223">
@@ -7926,7 +7945,7 @@
       <c r="A224" t="s">
         <v>439</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="4" t="s">
         <v>440</v>
       </c>
       <c r="C224">
@@ -7949,7 +7968,7 @@
       <c r="A225" t="s">
         <v>442</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="4" t="s">
         <v>441</v>
       </c>
       <c r="C225">
@@ -7972,7 +7991,7 @@
       <c r="A226" t="s">
         <v>443</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C226">
@@ -7995,7 +8014,7 @@
       <c r="A227" t="s">
         <v>444</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="4" t="s">
         <v>445</v>
       </c>
       <c r="C227">
@@ -8018,7 +8037,7 @@
       <c r="A228" t="s">
         <v>79</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C228">
@@ -8041,7 +8060,7 @@
       <c r="A229" t="s">
         <v>80</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C229">
@@ -8064,7 +8083,7 @@
       <c r="A230" t="s">
         <v>447</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C230">
@@ -8087,7 +8106,7 @@
       <c r="A231" t="s">
         <v>448</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="4" t="s">
         <v>449</v>
       </c>
       <c r="C231">
@@ -8110,7 +8129,7 @@
       <c r="A232" t="s">
         <v>450</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C232">
@@ -8133,7 +8152,7 @@
       <c r="A233" t="s">
         <v>451</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="4" t="s">
         <v>452</v>
       </c>
       <c r="C233">
@@ -8156,7 +8175,7 @@
       <c r="A234" t="s">
         <v>453</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="4" t="s">
         <v>454</v>
       </c>
       <c r="C234">
@@ -8179,7 +8198,7 @@
       <c r="A235" t="s">
         <v>455</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="4" t="s">
         <v>456</v>
       </c>
       <c r="C235">
@@ -8202,7 +8221,7 @@
       <c r="A236" t="s">
         <v>457</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="4" t="s">
         <v>458</v>
       </c>
       <c r="C236">
@@ -8225,7 +8244,7 @@
       <c r="A237" t="s">
         <v>459</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C237">
@@ -8248,7 +8267,7 @@
       <c r="A238" t="s">
         <v>460</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="4" t="s">
         <v>461</v>
       </c>
       <c r="C238">
@@ -8271,7 +8290,7 @@
       <c r="A239" t="s">
         <v>462</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="4" t="s">
         <v>463</v>
       </c>
       <c r="C239">
@@ -8294,7 +8313,7 @@
       <c r="A240" t="s">
         <v>464</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="4" t="s">
         <v>465</v>
       </c>
       <c r="C240">
@@ -8317,7 +8336,7 @@
       <c r="A241" t="s">
         <v>466</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="4" t="s">
         <v>467</v>
       </c>
       <c r="C241">
@@ -8340,7 +8359,7 @@
       <c r="A242" t="s">
         <v>468</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C242">
@@ -8363,7 +8382,7 @@
       <c r="A243" t="s">
         <v>470</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C243">
@@ -8386,7 +8405,7 @@
       <c r="A244" t="s">
         <v>471</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="4" t="s">
         <v>472</v>
       </c>
       <c r="C244">
@@ -8409,7 +8428,7 @@
       <c r="A245" t="s">
         <v>473</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="4" t="s">
         <v>474</v>
       </c>
       <c r="C245">
@@ -8432,7 +8451,7 @@
       <c r="A246" t="s">
         <v>475</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="4" t="s">
         <v>476</v>
       </c>
       <c r="C246">
@@ -8455,7 +8474,7 @@
       <c r="A247" t="s">
         <v>477</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="4" t="s">
         <v>493</v>
       </c>
       <c r="C247">
@@ -8478,7 +8497,7 @@
       <c r="A248" t="s">
         <v>478</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="4" t="s">
         <v>498</v>
       </c>
       <c r="C248">
@@ -8501,7 +8520,7 @@
       <c r="A249" t="s">
         <v>479</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="4" t="s">
         <v>492</v>
       </c>
       <c r="C249">
@@ -8524,7 +8543,7 @@
       <c r="A250" t="s">
         <v>480</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="4" t="s">
         <v>499</v>
       </c>
       <c r="C250">
@@ -8547,7 +8566,7 @@
       <c r="A251" t="s">
         <v>481</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="4" t="s">
         <v>491</v>
       </c>
       <c r="C251">
@@ -8570,7 +8589,7 @@
       <c r="A252" t="s">
         <v>482</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="4" t="s">
         <v>500</v>
       </c>
       <c r="C252">
@@ -8593,7 +8612,7 @@
       <c r="A253" t="s">
         <v>483</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="4" t="s">
         <v>494</v>
       </c>
       <c r="C253">
@@ -8616,7 +8635,7 @@
       <c r="A254" t="s">
         <v>484</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="4" t="s">
         <v>501</v>
       </c>
       <c r="C254">
@@ -8639,7 +8658,7 @@
       <c r="A255" t="s">
         <v>485</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="4" t="s">
         <v>495</v>
       </c>
       <c r="C255">
@@ -8662,7 +8681,7 @@
       <c r="A256" t="s">
         <v>486</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="4" t="s">
         <v>502</v>
       </c>
       <c r="C256">
@@ -8685,7 +8704,7 @@
       <c r="A257" t="s">
         <v>487</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="4" t="s">
         <v>496</v>
       </c>
       <c r="C257">
@@ -8708,7 +8727,7 @@
       <c r="A258" t="s">
         <v>488</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="4" t="s">
         <v>503</v>
       </c>
       <c r="C258">
@@ -8731,7 +8750,7 @@
       <c r="A259" t="s">
         <v>489</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="4" t="s">
         <v>497</v>
       </c>
       <c r="C259">
@@ -8754,7 +8773,7 @@
       <c r="A260" t="s">
         <v>490</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="4" t="s">
         <v>504</v>
       </c>
       <c r="C260">
@@ -8777,7 +8796,7 @@
       <c r="A261" t="s">
         <v>505</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="4" t="s">
         <v>506</v>
       </c>
       <c r="C261">
@@ -8800,7 +8819,7 @@
       <c r="A262" t="s">
         <v>507</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="4" t="s">
         <v>508</v>
       </c>
       <c r="C262">
@@ -8823,7 +8842,7 @@
       <c r="A263" t="s">
         <v>509</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="4" t="s">
         <v>510</v>
       </c>
       <c r="C263">
@@ -8846,7 +8865,7 @@
       <c r="A264" t="s">
         <v>511</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="4" t="s">
         <v>512</v>
       </c>
       <c r="C264">
@@ -8869,7 +8888,7 @@
       <c r="A265" t="s">
         <v>513</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="4" t="s">
         <v>527</v>
       </c>
       <c r="C265">
@@ -8892,7 +8911,7 @@
       <c r="A266" t="s">
         <v>514</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="4" t="s">
         <v>528</v>
       </c>
       <c r="C266">
@@ -8915,7 +8934,7 @@
       <c r="A267" t="s">
         <v>515</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="4" t="s">
         <v>529</v>
       </c>
       <c r="C267">
@@ -8938,7 +8957,7 @@
       <c r="A268" t="s">
         <v>516</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="4" t="s">
         <v>530</v>
       </c>
       <c r="C268">
@@ -8961,7 +8980,7 @@
       <c r="A269" t="s">
         <v>517</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="4" t="s">
         <v>531</v>
       </c>
       <c r="C269">
@@ -8984,7 +9003,7 @@
       <c r="A270" t="s">
         <v>518</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="4" t="s">
         <v>532</v>
       </c>
       <c r="C270">
@@ -9007,7 +9026,7 @@
       <c r="A271" t="s">
         <v>519</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="4" t="s">
         <v>533</v>
       </c>
       <c r="C271">
@@ -9030,7 +9049,7 @@
       <c r="A272" t="s">
         <v>520</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="4" t="s">
         <v>534</v>
       </c>
       <c r="C272">
@@ -9053,7 +9072,7 @@
       <c r="A273" t="s">
         <v>521</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="4" t="s">
         <v>535</v>
       </c>
       <c r="C273">
@@ -9076,7 +9095,7 @@
       <c r="A274" t="s">
         <v>522</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="4" t="s">
         <v>536</v>
       </c>
       <c r="C274">
@@ -9099,7 +9118,7 @@
       <c r="A275" t="s">
         <v>523</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="4" t="s">
         <v>537</v>
       </c>
       <c r="C275">
@@ -9122,7 +9141,7 @@
       <c r="A276" t="s">
         <v>524</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="4" t="s">
         <v>538</v>
       </c>
       <c r="C276">
@@ -9145,7 +9164,7 @@
       <c r="A277" t="s">
         <v>525</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="4" t="s">
         <v>539</v>
       </c>
       <c r="C277">
@@ -9168,7 +9187,7 @@
       <c r="A278" t="s">
         <v>526</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="4" t="s">
         <v>540</v>
       </c>
       <c r="C278">
@@ -9191,7 +9210,7 @@
       <c r="A279" t="s">
         <v>541</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="4" t="s">
         <v>506</v>
       </c>
       <c r="C279">
@@ -9214,7 +9233,7 @@
       <c r="A280" t="s">
         <v>542</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="4" t="s">
         <v>508</v>
       </c>
       <c r="C280">
@@ -9237,7 +9256,7 @@
       <c r="A281" t="s">
         <v>543</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="4" t="s">
         <v>544</v>
       </c>
       <c r="C281">
@@ -9260,7 +9279,7 @@
       <c r="A282" t="s">
         <v>545</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="4" t="s">
         <v>561</v>
       </c>
       <c r="C282">
@@ -9283,7 +9302,7 @@
       <c r="A283" t="s">
         <v>546</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="4" t="s">
         <v>562</v>
       </c>
       <c r="C283">
@@ -9306,7 +9325,7 @@
       <c r="A284" t="s">
         <v>547</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="4" t="s">
         <v>563</v>
       </c>
       <c r="C284">
@@ -9329,7 +9348,7 @@
       <c r="A285" t="s">
         <v>548</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="4" t="s">
         <v>564</v>
       </c>
       <c r="C285">
@@ -9352,7 +9371,7 @@
       <c r="A286" t="s">
         <v>549</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="4" t="s">
         <v>565</v>
       </c>
       <c r="C286">
@@ -9375,7 +9394,7 @@
       <c r="A287" t="s">
         <v>550</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="4" t="s">
         <v>566</v>
       </c>
       <c r="C287">
@@ -9398,7 +9417,7 @@
       <c r="A288" t="s">
         <v>551</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C288">
@@ -9421,7 +9440,7 @@
       <c r="A289" t="s">
         <v>552</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="4" t="s">
         <v>568</v>
       </c>
       <c r="C289">
@@ -9444,7 +9463,7 @@
       <c r="A290" t="s">
         <v>553</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="4" t="s">
         <v>569</v>
       </c>
       <c r="C290">
@@ -9467,7 +9486,7 @@
       <c r="A291" t="s">
         <v>554</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="4" t="s">
         <v>570</v>
       </c>
       <c r="C291">
@@ -9490,7 +9509,7 @@
       <c r="A292" t="s">
         <v>555</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="4" t="s">
         <v>571</v>
       </c>
       <c r="C292">
@@ -9513,7 +9532,7 @@
       <c r="A293" t="s">
         <v>556</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="4" t="s">
         <v>572</v>
       </c>
       <c r="C293">
@@ -9536,7 +9555,7 @@
       <c r="A294" t="s">
         <v>557</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="4" t="s">
         <v>573</v>
       </c>
       <c r="C294">
@@ -9559,7 +9578,7 @@
       <c r="A295" t="s">
         <v>558</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C295">
@@ -9582,7 +9601,7 @@
       <c r="A296" t="s">
         <v>559</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C296">
@@ -9605,7 +9624,7 @@
       <c r="A297" t="s">
         <v>560</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="4" t="s">
         <v>576</v>
       </c>
       <c r="C297">
@@ -9628,7 +9647,7 @@
       <c r="A298" t="s">
         <v>577</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="4" t="s">
         <v>578</v>
       </c>
       <c r="C298">
@@ -9651,7 +9670,7 @@
       <c r="A299" t="s">
         <v>580</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="4" t="s">
         <v>581</v>
       </c>
       <c r="C299">
@@ -9674,7 +9693,7 @@
       <c r="A300" t="s">
         <v>591</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="4" t="s">
         <v>582</v>
       </c>
       <c r="C300">
@@ -9697,7 +9716,7 @@
       <c r="A301" t="s">
         <v>592</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C301">
@@ -9720,7 +9739,7 @@
       <c r="A302" t="s">
         <v>593</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="4" t="s">
         <v>584</v>
       </c>
       <c r="C302">
@@ -9743,7 +9762,7 @@
       <c r="A303" t="s">
         <v>594</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="4" t="s">
         <v>585</v>
       </c>
       <c r="C303">
@@ -9766,7 +9785,7 @@
       <c r="A304" t="s">
         <v>595</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="4" t="s">
         <v>586</v>
       </c>
       <c r="C304">
@@ -9789,7 +9808,7 @@
       <c r="A305" t="s">
         <v>596</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="4" t="s">
         <v>587</v>
       </c>
       <c r="C305">
@@ -9812,7 +9831,7 @@
       <c r="A306" t="s">
         <v>597</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="4" t="s">
         <v>588</v>
       </c>
       <c r="C306">
@@ -9835,7 +9854,7 @@
       <c r="A307" t="s">
         <v>598</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="4" t="s">
         <v>589</v>
       </c>
       <c r="C307">
@@ -9858,7 +9877,7 @@
       <c r="A308" t="s">
         <v>599</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="4" t="s">
         <v>590</v>
       </c>
       <c r="C308">
@@ -9881,7 +9900,7 @@
       <c r="A309" t="s">
         <v>600</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C309">
@@ -9904,7 +9923,7 @@
       <c r="A310" t="s">
         <v>604</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="4" t="s">
         <v>601</v>
       </c>
       <c r="C310">
@@ -9927,7 +9946,7 @@
       <c r="A311" t="s">
         <v>605</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="4" t="s">
         <v>602</v>
       </c>
       <c r="C311">
@@ -9950,7 +9969,7 @@
       <c r="A312" t="s">
         <v>606</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="4" t="s">
         <v>603</v>
       </c>
       <c r="C312">
@@ -9973,7 +9992,7 @@
       <c r="A313" t="s">
         <v>607</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="4" t="s">
         <v>590</v>
       </c>
       <c r="C313">
@@ -9996,7 +10015,7 @@
       <c r="A314" t="s">
         <v>608</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C314">
@@ -10019,7 +10038,7 @@
       <c r="A315" t="s">
         <v>609</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="4" t="s">
         <v>610</v>
       </c>
       <c r="C315">
@@ -10042,7 +10061,7 @@
       <c r="A316" t="s">
         <v>611</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="4" t="s">
         <v>612</v>
       </c>
       <c r="C316">
@@ -10065,7 +10084,7 @@
       <c r="A317" t="s">
         <v>613</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C317">
@@ -10088,7 +10107,7 @@
       <c r="A318" t="s">
         <v>614</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="4" t="s">
         <v>616</v>
       </c>
       <c r="C318">
@@ -10111,7 +10130,7 @@
       <c r="A319" t="s">
         <v>618</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="4" t="s">
         <v>617</v>
       </c>
       <c r="C319">
@@ -10134,7 +10153,7 @@
       <c r="A320" t="s">
         <v>619</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C320">
@@ -10157,7 +10176,7 @@
       <c r="A321" t="s">
         <v>620</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="4" t="s">
         <v>622</v>
       </c>
       <c r="C321">
@@ -10180,7 +10199,7 @@
       <c r="A322" t="s">
         <v>621</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C322">
@@ -10203,7 +10222,7 @@
       <c r="A323" t="s">
         <v>623</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="4" t="s">
         <v>624</v>
       </c>
       <c r="C323">
@@ -10226,7 +10245,7 @@
       <c r="A324" t="s">
         <v>625</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="4" t="s">
         <v>626</v>
       </c>
       <c r="C324">
@@ -10249,7 +10268,7 @@
       <c r="A325" t="s">
         <v>627</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C325">
@@ -10272,7 +10291,7 @@
       <c r="A326" t="s">
         <v>628</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="4" t="s">
         <v>622</v>
       </c>
       <c r="C326">
@@ -10295,7 +10314,7 @@
       <c r="A327" t="s">
         <v>629</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C327">
@@ -10318,7 +10337,7 @@
       <c r="A328" t="s">
         <v>630</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="4" t="s">
         <v>631</v>
       </c>
       <c r="C328">
@@ -10341,7 +10360,7 @@
       <c r="A329" t="s">
         <v>632</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="4" t="s">
         <v>633</v>
       </c>
       <c r="C329">
@@ -10364,7 +10383,7 @@
       <c r="A330" t="s">
         <v>634</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="4" t="s">
         <v>635</v>
       </c>
       <c r="C330">
@@ -10387,7 +10406,7 @@
       <c r="A331" t="s">
         <v>636</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="4" t="s">
         <v>637</v>
       </c>
       <c r="C331">
@@ -10410,7 +10429,7 @@
       <c r="A332" t="s">
         <v>638</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="4" t="s">
         <v>639</v>
       </c>
       <c r="C332">
@@ -10433,7 +10452,7 @@
       <c r="A333" t="s">
         <v>640</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="4" t="s">
         <v>641</v>
       </c>
       <c r="C333">
@@ -10456,7 +10475,7 @@
       <c r="A334" t="s">
         <v>642</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="4" t="s">
         <v>643</v>
       </c>
       <c r="C334">
@@ -10479,7 +10498,7 @@
       <c r="A335" t="s">
         <v>644</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="4" t="s">
         <v>646</v>
       </c>
       <c r="C335">
@@ -10502,7 +10521,7 @@
       <c r="A336" t="s">
         <v>645</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="4" t="s">
         <v>647</v>
       </c>
       <c r="C336">
@@ -10525,7 +10544,7 @@
       <c r="A337" t="s">
         <v>648</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="4" t="s">
         <v>649</v>
       </c>
       <c r="C337">
@@ -10548,7 +10567,7 @@
       <c r="A338" t="s">
         <v>652</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="4" t="s">
         <v>650</v>
       </c>
       <c r="C338">
@@ -10571,7 +10590,7 @@
       <c r="A339" t="s">
         <v>653</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="4" t="s">
         <v>651</v>
       </c>
       <c r="C339">
@@ -10594,7 +10613,7 @@
       <c r="A340" t="s">
         <v>654</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C340">
@@ -10617,7 +10636,7 @@
       <c r="A341" t="s">
         <v>655</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" s="4" t="s">
         <v>612</v>
       </c>
       <c r="C341">
@@ -10640,7 +10659,7 @@
       <c r="A342" t="s">
         <v>658</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B342" s="4" t="s">
         <v>659</v>
       </c>
       <c r="C342">
@@ -10663,7 +10682,7 @@
       <c r="A343" t="s">
         <v>657</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B343" s="4" t="s">
         <v>656</v>
       </c>
       <c r="C343">
@@ -10686,7 +10705,7 @@
       <c r="A344" t="s">
         <v>662</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" s="4" t="s">
         <v>660</v>
       </c>
       <c r="C344">
@@ -10709,7 +10728,7 @@
       <c r="A345" t="s">
         <v>663</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="4" t="s">
         <v>661</v>
       </c>
       <c r="C345">
@@ -10732,7 +10751,7 @@
       <c r="A346" t="s">
         <v>664</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C346">
@@ -10755,7 +10774,7 @@
       <c r="A347" t="s">
         <v>665</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B347" s="4" t="s">
         <v>666</v>
       </c>
       <c r="C347">
@@ -10778,7 +10797,7 @@
       <c r="A348" t="s">
         <v>667</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" s="4" t="s">
         <v>668</v>
       </c>
       <c r="C348">
@@ -10801,7 +10820,7 @@
       <c r="A349" t="s">
         <v>680</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B349" s="4" t="s">
         <v>669</v>
       </c>
       <c r="C349">
@@ -10824,7 +10843,7 @@
       <c r="A350" t="s">
         <v>681</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B350" s="4" t="s">
         <v>670</v>
       </c>
       <c r="C350">
@@ -10847,7 +10866,7 @@
       <c r="A351" t="s">
         <v>682</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B351" s="4" t="s">
         <v>671</v>
       </c>
       <c r="C351">
@@ -10870,7 +10889,7 @@
       <c r="A352" t="s">
         <v>683</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" s="4" t="s">
         <v>672</v>
       </c>
       <c r="C352">
@@ -10893,7 +10912,7 @@
       <c r="A353" t="s">
         <v>684</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B353" s="4" t="s">
         <v>673</v>
       </c>
       <c r="C353">
@@ -10916,7 +10935,7 @@
       <c r="A354" t="s">
         <v>685</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" s="4" t="s">
         <v>696</v>
       </c>
       <c r="C354">
@@ -10939,7 +10958,7 @@
       <c r="A355" t="s">
         <v>686</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B355" s="4" t="s">
         <v>695</v>
       </c>
       <c r="C355">
@@ -10962,7 +10981,7 @@
       <c r="A356" t="s">
         <v>687</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" s="4" t="s">
         <v>674</v>
       </c>
       <c r="C356">
@@ -10985,7 +11004,7 @@
       <c r="A357" t="s">
         <v>688</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" s="4" t="s">
         <v>675</v>
       </c>
       <c r="C357">
@@ -11008,7 +11027,7 @@
       <c r="A358" t="s">
         <v>689</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" s="4" t="s">
         <v>676</v>
       </c>
       <c r="C358">
@@ -11031,7 +11050,7 @@
       <c r="A359" t="s">
         <v>690</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" s="4" t="s">
         <v>677</v>
       </c>
       <c r="C359">
@@ -11054,7 +11073,7 @@
       <c r="A360" t="s">
         <v>691</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C360">
@@ -11077,7 +11096,7 @@
       <c r="A361" t="s">
         <v>692</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="B361" s="4" t="s">
         <v>678</v>
       </c>
       <c r="C361">
@@ -11100,7 +11119,7 @@
       <c r="A362" t="s">
         <v>693</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="B362" s="4" t="s">
         <v>452</v>
       </c>
       <c r="C362">
@@ -11123,7 +11142,7 @@
       <c r="A363" t="s">
         <v>694</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B363" s="4" t="s">
         <v>679</v>
       </c>
       <c r="C363">
@@ -11146,7 +11165,7 @@
       <c r="A364" t="s">
         <v>702</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B364" s="4" t="s">
         <v>697</v>
       </c>
       <c r="C364">
@@ -11169,7 +11188,7 @@
       <c r="A365" t="s">
         <v>703</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B365" s="4" t="s">
         <v>698</v>
       </c>
       <c r="C365">
@@ -11192,7 +11211,7 @@
       <c r="A366" t="s">
         <v>704</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B366" s="4" t="s">
         <v>699</v>
       </c>
       <c r="C366">
@@ -11215,7 +11234,7 @@
       <c r="A367" t="s">
         <v>705</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="B367" s="4" t="s">
         <v>700</v>
       </c>
       <c r="C367">
@@ -11238,7 +11257,7 @@
       <c r="A368" t="s">
         <v>706</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="B368" s="4" t="s">
         <v>701</v>
       </c>
       <c r="C368">
@@ -11261,7 +11280,7 @@
       <c r="A369" t="s">
         <v>707</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="B369" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C369">
@@ -11284,7 +11303,7 @@
       <c r="A370" t="s">
         <v>708</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B370" s="4" t="s">
         <v>709</v>
       </c>
       <c r="C370">
@@ -11307,7 +11326,7 @@
       <c r="A371" t="s">
         <v>712</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B371" s="4" t="s">
         <v>710</v>
       </c>
       <c r="C371">
@@ -11330,7 +11349,7 @@
       <c r="A372" t="s">
         <v>713</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B372" s="4" t="s">
         <v>711</v>
       </c>
       <c r="C372">
@@ -11353,7 +11372,7 @@
       <c r="A373" t="s">
         <v>714</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B373" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C373">
@@ -11376,7 +11395,7 @@
       <c r="A374" t="s">
         <v>715</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="B374" s="4" t="s">
         <v>612</v>
       </c>
       <c r="C374">
@@ -11399,7 +11418,7 @@
       <c r="A375" t="s">
         <v>716</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="B375" s="4" t="s">
         <v>717</v>
       </c>
       <c r="C375">
@@ -11422,7 +11441,7 @@
       <c r="A376" t="s">
         <v>723</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B376" s="4" t="s">
         <v>718</v>
       </c>
       <c r="C376">
@@ -11445,7 +11464,7 @@
       <c r="A377" t="s">
         <v>724</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B377" s="4" t="s">
         <v>719</v>
       </c>
       <c r="C377">
@@ -11468,7 +11487,7 @@
       <c r="A378" t="s">
         <v>725</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B378" s="4" t="s">
         <v>720</v>
       </c>
       <c r="C378">
@@ -11491,7 +11510,7 @@
       <c r="A379" t="s">
         <v>726</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B379" s="4" t="s">
         <v>721</v>
       </c>
       <c r="C379">
@@ -11514,7 +11533,7 @@
       <c r="A380" t="s">
         <v>727</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B380" s="4" t="s">
         <v>722</v>
       </c>
       <c r="C380">
@@ -11537,7 +11556,7 @@
       <c r="A381" t="s">
         <v>728</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B381" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C381">
@@ -11560,7 +11579,7 @@
       <c r="A382" t="s">
         <v>730</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B382" s="4" t="s">
         <v>729</v>
       </c>
       <c r="C382">
@@ -11583,7 +11602,7 @@
       <c r="A383" t="s">
         <v>733</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" s="4" t="s">
         <v>731</v>
       </c>
       <c r="C383">
@@ -11606,7 +11625,7 @@
       <c r="A384" t="s">
         <v>734</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" s="4" t="s">
         <v>732</v>
       </c>
       <c r="C384">
@@ -11629,7 +11648,7 @@
       <c r="A385" t="s">
         <v>735</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" s="4" t="s">
         <v>741</v>
       </c>
       <c r="C385">
@@ -11652,7 +11671,7 @@
       <c r="A386" t="s">
         <v>736</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B386" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C386">
@@ -11675,7 +11694,7 @@
       <c r="A387" t="s">
         <v>742</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B387" s="4" t="s">
         <v>737</v>
       </c>
       <c r="C387">
@@ -11698,7 +11717,7 @@
       <c r="A388" t="s">
         <v>743</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="B388" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C388">
@@ -11721,7 +11740,7 @@
       <c r="A389" t="s">
         <v>744</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B389" s="4" t="s">
         <v>739</v>
       </c>
       <c r="C389">
@@ -11744,7 +11763,7 @@
       <c r="A390" t="s">
         <v>745</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B390" s="4" t="s">
         <v>740</v>
       </c>
       <c r="C390">
@@ -11767,7 +11786,7 @@
       <c r="A391" t="s">
         <v>746</v>
       </c>
-      <c r="B391" s="3" t="s">
+      <c r="B391" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C391">
@@ -11790,7 +11809,7 @@
       <c r="A392" t="s">
         <v>747</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B392" s="4" t="s">
         <v>748</v>
       </c>
       <c r="C392">
@@ -11813,7 +11832,7 @@
       <c r="A393" t="s">
         <v>750</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B393" s="4" t="s">
         <v>749</v>
       </c>
       <c r="C393">
@@ -11836,7 +11855,7 @@
       <c r="A394" t="s">
         <v>751</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B394" s="4" t="s">
         <v>754</v>
       </c>
       <c r="C394">
@@ -11859,7 +11878,7 @@
       <c r="A395" t="s">
         <v>752</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B395" s="4" t="s">
         <v>755</v>
       </c>
       <c r="C395">
@@ -11882,7 +11901,7 @@
       <c r="A396" t="s">
         <v>753</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="B396" s="4" t="s">
         <v>756</v>
       </c>
       <c r="C396">
@@ -11905,7 +11924,7 @@
       <c r="A397" t="s">
         <v>757</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="B397" s="4" t="s">
         <v>754</v>
       </c>
       <c r="C397">
@@ -11928,7 +11947,7 @@
       <c r="A398" t="s">
         <v>758</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B398" s="4" t="s">
         <v>755</v>
       </c>
       <c r="C398">
@@ -11951,7 +11970,7 @@
       <c r="A399" t="s">
         <v>760</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" s="4" t="s">
         <v>781</v>
       </c>
       <c r="C399">
@@ -11974,7 +11993,7 @@
       <c r="A400" t="s">
         <v>761</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" s="4" t="s">
         <v>754</v>
       </c>
       <c r="C400">
@@ -11997,7 +12016,7 @@
       <c r="A401" t="s">
         <v>762</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" s="4" t="s">
         <v>755</v>
       </c>
       <c r="C401">
@@ -12020,7 +12039,7 @@
       <c r="A402" t="s">
         <v>763</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B402" s="4" t="s">
         <v>782</v>
       </c>
       <c r="C402">
@@ -12043,7 +12062,7 @@
       <c r="A403" t="s">
         <v>764</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B403" s="4" t="s">
         <v>754</v>
       </c>
       <c r="C403">
@@ -12066,7 +12085,7 @@
       <c r="A404" t="s">
         <v>765</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" s="4" t="s">
         <v>755</v>
       </c>
       <c r="C404">
@@ -12089,7 +12108,7 @@
       <c r="A405" t="s">
         <v>767</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B405" s="4" t="s">
         <v>759</v>
       </c>
       <c r="C405">
@@ -12112,7 +12131,7 @@
       <c r="A406" t="s">
         <v>768</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B406" s="4" t="s">
         <v>754</v>
       </c>
       <c r="C406">
@@ -12135,7 +12154,7 @@
       <c r="A407" t="s">
         <v>769</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B407" s="4" t="s">
         <v>755</v>
       </c>
       <c r="C407">
@@ -12158,7 +12177,7 @@
       <c r="A408" t="s">
         <v>770</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B408" s="4" t="s">
         <v>766</v>
       </c>
       <c r="C408">
@@ -12181,7 +12200,7 @@
       <c r="A409" t="s">
         <v>773</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B409" s="4" t="s">
         <v>754</v>
       </c>
       <c r="C409">
@@ -12204,7 +12223,7 @@
       <c r="A410" t="s">
         <v>774</v>
       </c>
-      <c r="B410" s="3" t="s">
+      <c r="B410" s="4" t="s">
         <v>755</v>
       </c>
       <c r="C410">
@@ -12227,7 +12246,7 @@
       <c r="A411" t="s">
         <v>775</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B411" s="4" t="s">
         <v>771</v>
       </c>
       <c r="C411">
@@ -12250,7 +12269,7 @@
       <c r="A412" t="s">
         <v>776</v>
       </c>
-      <c r="B412" s="3" t="s">
+      <c r="B412" s="4" t="s">
         <v>754</v>
       </c>
       <c r="C412">
@@ -12273,7 +12292,7 @@
       <c r="A413" t="s">
         <v>777</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="B413" s="4" t="s">
         <v>755</v>
       </c>
       <c r="C413">
@@ -12296,7 +12315,7 @@
       <c r="A414" t="s">
         <v>778</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="B414" s="4" t="s">
         <v>772</v>
       </c>
       <c r="C414">
@@ -12319,7 +12338,7 @@
       <c r="A415" t="s">
         <v>779</v>
       </c>
-      <c r="B415" s="3" t="s">
+      <c r="B415" s="4" t="s">
         <v>754</v>
       </c>
       <c r="C415">
@@ -12342,7 +12361,7 @@
       <c r="A416" t="s">
         <v>780</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B416" s="4" t="s">
         <v>755</v>
       </c>
       <c r="C416">
@@ -12362,7 +12381,7 @@
       </c>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B417" s="3"/>
+      <c r="B417" s="2"/>
       <c r="C417">
         <v>0</v>
       </c>
